--- a/santong.xlsx
+++ b/santong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/upk-elogsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC77A7D-A5CF-C64D-AA11-9805F193041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C303BAF-E94C-BA4F-8910-A30CC43CF3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t xml:space="preserve">                  PT PLN (Persero) WILAYAH NTB</t>
   </si>
@@ -195,7 +195,13 @@
     <t>m3/det</t>
   </si>
   <si>
-    <t>Debit Air</t>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>Head Tank</t>
+  </si>
+  <si>
+    <t>Tail Race</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -648,8 +654,54 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -658,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +759,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,6 +792,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -758,21 +912,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,94 +924,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI113"/>
+  <dimension ref="A1:AJ113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="AB14" sqref="AB14:AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1237,277 +1316,280 @@
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="18" width="6.33203125" customWidth="1"/>
     <col min="19" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="12.5" customWidth="1"/>
-    <col min="31" max="31" width="12.83203125" customWidth="1"/>
-    <col min="32" max="32" width="39.5" customWidth="1"/>
-    <col min="33" max="33" width="36" customWidth="1"/>
-    <col min="34" max="34" width="32" customWidth="1"/>
-    <col min="35" max="35" width="37.5" customWidth="1"/>
+    <col min="28" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="12.5" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" customWidth="1"/>
+    <col min="33" max="33" width="39.5" customWidth="1"/>
+    <col min="34" max="34" width="36" customWidth="1"/>
+    <col min="35" max="35" width="32" customWidth="1"/>
+    <col min="36" max="36" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="64"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="36"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="70"/>
-    </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="47"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:35" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:36" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:35" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:36" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33" t="s">
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="43" t="s">
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AE11" s="43" t="s">
+      <c r="AF11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AF11" s="46" t="s">
+      <c r="AG11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AG11" s="49" t="s">
+      <c r="AH11" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AH11" s="52" t="s">
+      <c r="AI11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AI11" s="55"/>
-    </row>
-    <row r="12" spans="1:35" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="AJ11" s="31"/>
+    </row>
+    <row r="12" spans="1:36" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="68"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34" t="s">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34" t="s">
+      <c r="N12" s="52"/>
+      <c r="O12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34" t="s">
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34" t="s">
+      <c r="R12" s="52"/>
+      <c r="S12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="55"/>
-    </row>
-    <row r="13" spans="1:35" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="31"/>
+    </row>
+    <row r="13" spans="1:36" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1526,9 +1608,9 @@
       <c r="I13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
       <c r="M13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1574,16 +1656,23 @@
       <c r="AA13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="55"/>
-    </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB13" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="31"/>
+    </row>
+    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>47</v>
@@ -1591,16 +1680,16 @@
       <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
@@ -1614,39 +1703,40 @@
       <c r="N14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35" t="s">
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35" t="s">
+      <c r="R14" s="61"/>
+      <c r="S14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="16" t="s">
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="20" t="s">
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="13"/>
-    </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="13"/>
+    </row>
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1674,16 +1764,17 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="9"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="13"/>
-    </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="13"/>
+    </row>
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1711,16 +1802,17 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="9"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
       <c r="AE16" s="9"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="13"/>
-    </row>
-    <row r="17" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="13"/>
+    </row>
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1748,16 +1840,17 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="9"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
       <c r="AE17" s="9"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="13"/>
-    </row>
-    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="13"/>
+    </row>
+    <row r="18" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1785,16 +1878,17 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="9"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="13"/>
-    </row>
-    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="13"/>
+    </row>
+    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1822,16 +1916,17 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="9"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
       <c r="AE19" s="9"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="13"/>
-    </row>
-    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="13"/>
+    </row>
+    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1859,16 +1954,17 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="9"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
       <c r="AE20" s="9"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="13"/>
-    </row>
-    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="13"/>
+    </row>
+    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1896,16 +1992,17 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="9"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
       <c r="AE21" s="9"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="13"/>
-    </row>
-    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="13"/>
+    </row>
+    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1933,16 +2030,17 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="9"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="9"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="13"/>
-    </row>
-    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="13"/>
+    </row>
+    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1970,16 +2068,17 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="9"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
       <c r="AE23" s="9"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="13"/>
-    </row>
-    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="13"/>
+    </row>
+    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2007,16 +2106,17 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="9"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
       <c r="AE24" s="9"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="13"/>
-    </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="13"/>
+    </row>
+    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2044,16 +2144,17 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="9"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
       <c r="AE25" s="9"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="13"/>
-    </row>
-    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="13"/>
+    </row>
+    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2081,16 +2182,17 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="9"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
       <c r="AE26" s="9"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="13"/>
-    </row>
-    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="13"/>
+    </row>
+    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2118,16 +2220,17 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="9"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
       <c r="AE27" s="9"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="13"/>
-    </row>
-    <row r="28" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="13"/>
+    </row>
+    <row r="28" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2155,16 +2258,17 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="9"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
       <c r="AE28" s="9"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="13"/>
-    </row>
-    <row r="29" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="13"/>
+    </row>
+    <row r="29" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2192,16 +2296,17 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="9"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
       <c r="AE29" s="9"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="13"/>
-    </row>
-    <row r="30" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="13"/>
+    </row>
+    <row r="30" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2229,16 +2334,17 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="9"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
       <c r="AE30" s="9"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="13"/>
-    </row>
-    <row r="31" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="13"/>
+    </row>
+    <row r="31" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2266,16 +2372,17 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="9"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
       <c r="AE31" s="9"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="13"/>
-    </row>
-    <row r="32" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="13"/>
+    </row>
+    <row r="32" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2303,16 +2410,17 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="9"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
       <c r="AE32" s="9"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="13"/>
-    </row>
-    <row r="33" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="13"/>
+    </row>
+    <row r="33" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2340,16 +2448,17 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="9"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
       <c r="AE33" s="9"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="13"/>
-    </row>
-    <row r="34" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="13"/>
+    </row>
+    <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2377,16 +2486,17 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="9"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
       <c r="AE34" s="9"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="13"/>
-    </row>
-    <row r="35" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="13"/>
+    </row>
+    <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2414,16 +2524,17 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="9"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="13"/>
-    </row>
-    <row r="36" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="13"/>
+    </row>
+    <row r="36" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2451,16 +2562,17 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="9"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
       <c r="AE36" s="9"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="13"/>
-    </row>
-    <row r="37" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="13"/>
+    </row>
+    <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2488,16 +2600,17 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="9"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
       <c r="AE37" s="9"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="13"/>
-    </row>
-    <row r="38" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="13"/>
+    </row>
+    <row r="38" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2525,16 +2638,17 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="9"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
       <c r="AE38" s="9"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="13"/>
-    </row>
-    <row r="39" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="13"/>
+    </row>
+    <row r="39" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2562,16 +2676,17 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="9"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
       <c r="AE39" s="9"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="13"/>
-    </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="13"/>
+    </row>
+    <row r="40" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2599,16 +2714,17 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="9"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
       <c r="AE40" s="9"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="13"/>
-    </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="13"/>
+    </row>
+    <row r="41" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2636,16 +2752,17 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="9"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
       <c r="AE41" s="9"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="13"/>
-    </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="13"/>
+    </row>
+    <row r="42" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2673,16 +2790,17 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="9"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
       <c r="AE42" s="9"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="13"/>
-    </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="13"/>
+    </row>
+    <row r="43" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
@@ -2702,9 +2820,9 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
-      <c r="AI43" s="13"/>
-    </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ43" s="13"/>
+    </row>
+    <row r="44" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2725,7 +2843,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -2746,7 +2864,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -2767,29 +2885,29 @@
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
     </row>
-    <row r="47" spans="1:35" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:36" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="15"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-    </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+    </row>
+    <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2857,27 +2975,7 @@
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="F1:T3"/>
-    <mergeCell ref="U1:AH3"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D11:AA11"/>
@@ -2894,6 +2992,26 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="F1:T3"/>
+    <mergeCell ref="U1:AI3"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AB11:AD12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
